--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.117</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.016</v>
+        <v>19.257</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.572</v>
+        <v>16.768</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.262</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.632</v>
+        <v>16.049</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.8252928070497</v>
+        <v>15.73911314642236</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.49249007738046</v>
+        <v>14.52006896173848</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.19604806289043</v>
+        <v>19.61807773765647</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.80430330076565</v>
+        <v>-0.3386221258769293</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.68833203162808</v>
+        <v>17.35580146687038</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.82435710520992</v>
+        <v>30.1617475127939</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.49155938258962</v>
+        <v>31.61462291180861</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.19512845517568</v>
+        <v>37.88850580312819</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.803379929773</v>
+        <v>16.4503069464195</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.68740171703963</v>
+        <v>35.64460516620637</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.82547018155802</v>
+        <v>29.00874364059831</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.49266800242658</v>
+        <v>30.90678808810032</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>33.19622807277342</v>
+        <v>37.40203956748978</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.80448084961944</v>
+        <v>15.69530192959689</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.68851355522415</v>
+        <v>35.34365978845498</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.82660826410933</v>
+        <v>26.51204018294187</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.49380973976498</v>
+        <v>26.2527862883113</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.19738406912862</v>
+        <v>32.01360230731078</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.8056158155872</v>
+        <v>11.19169085323428</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.68966298911214</v>
+        <v>30.93134809551854</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.39402390096614</v>
+        <v>19.62077880671409</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36.13060027288434</v>
+        <v>25.20876072958997</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.70381587569194</v>
+        <v>5.328030132827399</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36.94330064571885</v>
+        <v>24.33877971537161</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>38.64044324734405</v>
+        <v>29.36156484618505</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>43.33448710437957</v>
+        <v>35.91430555135688</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>38.9141327335285</v>
+        <v>13.92426994485404</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.39309869632767</v>
+        <v>40.66823012161503</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.12968623528638</v>
+        <v>47.48239569602885</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>31.70289800494248</v>
+        <v>26.10177100204676</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.94241141189679</v>
+        <v>45.51152686805257</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.63955902514533</v>
+        <v>53.31878323572471</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.33361397328393</v>
+        <v>61.12603409830052</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>38.91325557407535</v>
+        <v>37.58784444189868</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>31.3942059680374</v>
+        <v>40.81195434294122</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.1307844419262</v>
+        <v>47.85847702155177</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.70399754420539</v>
+        <v>26.2076277286738</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.94349076192776</v>
+        <v>46.44909327016323</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>38.64063385718443</v>
+        <v>54.70402413780112</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>43.33467982459189</v>
+        <v>62.74926622246068</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.91432286847188</v>
+        <v>38.92903545323645</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>31.39535914810602</v>
+        <v>34.16294877758831</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.13195197987261</v>
+        <v>40.44852961761452</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.70514392076479</v>
+        <v>19.68766235277815</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.94463753503304</v>
+        <v>41.79800038463922</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>38.64178441877158</v>
+        <v>47.81668749560816</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>43.33584459924164</v>
+        <v>55.08810567556527</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>38.91546670006565</v>
+        <v>32.16471097170962</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>23.64911546818843</v>
+        <v>26.09378559068439</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.31806552336246</v>
+        <v>25.4696962714636</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.06708763778357</v>
+        <v>31.33677205504052</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.6446090895649</v>
+        <v>9.819236733833362</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.52139420904614</v>
+        <v>24.0982095040124</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>23.64816574357864</v>
+        <v>38.99000099427126</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.31712083295886</v>
+        <v>41.03372297213576</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.06615414715345</v>
+        <v>48.07203646545359</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25.64367179438531</v>
+        <v>25.06854569596262</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.52044993097962</v>
+        <v>40.78694488966342</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>23.64928756831331</v>
+        <v>37.30276545035255</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.31823819083033</v>
+        <v>39.79037255025125</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>30.06726238480518</v>
+        <v>47.04552455855046</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.6447814166269</v>
+        <v>23.78112317545873</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.52157047337986</v>
+        <v>39.94764367415849</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>23.65042266818568</v>
+        <v>35.69155451448619</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.31937693085701</v>
+        <v>36.03716702855785</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.06841550839738</v>
+        <v>42.56415370758313</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.64591339599247</v>
+        <v>20.18841733663315</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.52271692222202</v>
+        <v>36.41366850768998</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.22894063831914</v>
+        <v>27.04018026262334</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.01134064760652</v>
+        <v>33.40378982784478</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.55345059355291</v>
+        <v>12.00270138062085</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.97966372709076</v>
+        <v>31.14996451447407</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.67856049561119</v>
+        <v>36.85004842403567</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>40.41794085243587</v>
+        <v>44.18249416991634</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>35.96568264430183</v>
+        <v>20.66972405299094</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.22800149685991</v>
+        <v>46.48381184445174</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.01041278654701</v>
+        <v>54.06824213418065</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.55251885691473</v>
+        <v>31.1644320402081</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.9787613149975</v>
+        <v>50.68506838796133</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.67766311987586</v>
+        <v>59.16772039460589</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>40.41705468189952</v>
+        <v>67.74943710381666</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>35.9647923971871</v>
+        <v>42.68604396183429</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.22911746245603</v>
+        <v>46.08746901554474</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>33.01151956837752</v>
+        <v>53.89944601325218</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.55362705470087</v>
+        <v>30.7335389321273</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.97984880020721</v>
+        <v>51.06456732908292</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.67874607841419</v>
+        <v>59.99391113395036</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>40.41812854148367</v>
+        <v>68.80897184939758</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>35.96586778668932</v>
+        <v>43.47167259110886</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.23026764372314</v>
+        <v>40.33208863230904</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>33.01268423329336</v>
+        <v>47.38961129640325</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.55477044346974</v>
+        <v>25.11722397378495</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.98099288651728</v>
+        <v>47.3040228597067</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>35.67989394105064</v>
+        <v>54.0113875584721</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.41929073986199</v>
+        <v>62.05933881470455</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.96700892866045</v>
+        <v>37.62193597090294</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>23.64911546818843</v>
+        <v>23.74779712051688</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.31806552336246</v>
+        <v>23.25400418739753</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.06708763778357</v>
+        <v>29.08506097769103</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.6446090895649</v>
+        <v>7.710820266617832</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.52139420904614</v>
+        <v>22.75261649907934</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>23.64816574357864</v>
+        <v>36.72510701528767</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.31712083295886</v>
+        <v>38.89842793733089</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.06615414715345</v>
+        <v>45.90126766024423</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.64367179438531</v>
+        <v>23.04064636080867</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.52044993097962</v>
+        <v>39.52204750879597</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>23.64928756831331</v>
+        <v>35.07510914261857</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.31823819083033</v>
+        <v>37.69122240347084</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>30.06726238480518</v>
+        <v>44.91105857106614</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.6447814166269</v>
+        <v>21.78875944267784</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>26.52157047337986</v>
+        <v>38.71933761685198</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>23.65042266818568</v>
+        <v>33.38583538858972</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.31937693085701</v>
+        <v>33.86026175383713</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.06841550839738</v>
+        <v>40.35121983731807</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.64591339599247</v>
+        <v>18.11833114994469</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>26.52271692222202</v>
+        <v>35.11685028598994</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.22894063831914</v>
+        <v>25.80409362472185</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.01134064760652</v>
+        <v>32.13662994935665</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.55345059355291</v>
+        <v>10.86232209565459</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>33.97966372709076</v>
+        <v>29.90548445589103</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.67856049561119</v>
+        <v>35.70971995137069</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.41794085243587</v>
+        <v>43.01567754722273</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>35.96568264430183</v>
+        <v>19.61740762294051</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.22800149685991</v>
+        <v>45.32761230668954</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.01041278654701</v>
+        <v>52.8815847584129</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.55251885691473</v>
+        <v>30.10400577124959</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>33.9787613149975</v>
+        <v>49.52418911232436</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>35.67766311987586</v>
+        <v>58.11014683348462</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>40.41705468189952</v>
+        <v>66.66603537488167</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>35.9647923971871</v>
+        <v>41.71652529121486</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.22911746245603</v>
+        <v>44.96681166785619</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>33.01151956837752</v>
+        <v>52.74850147185236</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.55362705470087</v>
+        <v>29.70804678094531</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>33.97984880020721</v>
+        <v>49.94137275785835</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>35.67874607841419</v>
+        <v>58.97300487132587</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>40.41812854148367</v>
+        <v>67.7624077068553</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>35.96586778668932</v>
+        <v>42.53824726710464</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.23026764372314</v>
+        <v>39.14313399688704</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>33.01268423329336</v>
+        <v>46.16964381336749</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.55477044346974</v>
+        <v>24.02338093942772</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>33.98099288651728</v>
+        <v>46.11342912409835</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>35.67989394105064</v>
+        <v>52.92331058788991</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>40.41929073986199</v>
+        <v>60.9448787461596</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>35.96700892866045</v>
+        <v>36.62129467287184</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.26066516692929</v>
+        <v>12.46416241115235</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.93585711885171</v>
+        <v>11.03668044766935</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.64977638368808</v>
+        <v>15.957263586416</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.2584791694932</v>
+        <v>-3.65763216528895</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.13476096523103</v>
+        <v>13.64016600143334</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.25972354355154</v>
+        <v>26.59336411512579</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>26.93492051898598</v>
+        <v>27.83295744870652</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>31.64885090007465</v>
+        <v>33.9251154802154</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>27.25754993213992</v>
+        <v>12.83335252225227</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.13382474854777</v>
+        <v>31.60255032956833</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.26084280830916</v>
+        <v>25.44097997995716</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.9360353081674</v>
+        <v>27.12604432004611</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.64995666285055</v>
+        <v>33.43970608761104</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.25865698055688</v>
+        <v>12.07898586665948</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.13494276326297</v>
+        <v>31.29506883449361</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.26197910101677</v>
+        <v>23.18824705654576</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.93717528060546</v>
+        <v>22.72020792200452</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.65111092112893</v>
+        <v>28.30239687654824</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.25979019694915</v>
+        <v>7.824575957499631</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.13609045034163</v>
+        <v>27.14330291919828</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.84849703011866</v>
+        <v>15.70381237304438</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.59554159991978</v>
+        <v>21.1089501321092</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.16905040357407</v>
+        <v>1.579331753993168</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.47818742543738</v>
+        <v>21.02792505116061</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>37.1830900246934</v>
+        <v>25.84027068178612</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.88758423092251</v>
+        <v>32.2138348338457</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>37.46691819383105</v>
+        <v>10.56493384002997</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.84756593984968</v>
+        <v>36.42037026478482</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34.59462170611661</v>
+        <v>43.04711688073927</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>30.16812668579993</v>
+        <v>22.02259619297602</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.4772925602239</v>
+        <v>41.86646073774403</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>37.1822001861614</v>
+        <v>49.45892974218566</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>41.88670551296329</v>
+        <v>57.08241223652374</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.46603545455034</v>
+        <v>33.8903303978163</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.8486793689477</v>
+        <v>36.55793836090486</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>34.59572604575936</v>
+        <v>43.41712998652</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>30.16923234172776</v>
+        <v>22.12201763884967</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.47837784869413</v>
+        <v>42.79283921157104</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>37.18328093869302</v>
+        <v>50.83342289238832</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>41.88777726042177</v>
+        <v>58.69495581769046</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>37.46710863056507</v>
+        <v>35.22052685777621</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.8498308273905</v>
+        <v>30.17357178527435</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>34.59689188922931</v>
+        <v>36.27494196051332</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30.17037701181306</v>
+        <v>15.86773672920065</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.47952307045777</v>
+        <v>38.40864309714804</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.18442997405064</v>
+        <v>44.21695307600162</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>41.88894053587339</v>
+        <v>51.30782731469169</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>37.46825094990554</v>
+        <v>28.72812835135552</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.98357377835335</v>
+        <v>22.55735790964379</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.64594491895496</v>
+        <v>21.33629569923112</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.35022876049074</v>
+        <v>26.77932459175135</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.95470946796077</v>
+        <v>5.925845820620014</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.8565369452158</v>
+        <v>25.39167554223174</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.98264056913614</v>
+        <v>36.97400174937507</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.64501670172682</v>
+        <v>38.41904396575342</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.34931163937579</v>
+        <v>45.03838734041161</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.9537885526872</v>
+        <v>22.69780605702552</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.85560915174444</v>
+        <v>43.63303932801794</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.9837513558616</v>
+        <v>35.89292252364854</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.64612304458808</v>
+        <v>37.78204862371758</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.35040897187469</v>
+        <v>44.62231209711801</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.95488721477289</v>
+        <v>22.01410343930589</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.85671866629356</v>
+        <v>43.39397408525904</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.98488758442085</v>
+        <v>33.56119623183636</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.64726291769468</v>
+        <v>33.29775694822378</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>33.35156309788008</v>
+        <v>39.40526507302892</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.95602032342623</v>
+        <v>17.6813494267487</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.85786626658588</v>
+        <v>39.17905622680149</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.55734325708524</v>
+        <v>27.72065134925302</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.29464473803274</v>
+        <v>33.66750820521027</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>31.86399869785129</v>
+        <v>12.89278061829439</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>37.11533267961571</v>
+        <v>31.00828324101364</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.80766859497236</v>
+        <v>36.09250543363428</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.5023458481753</v>
+        <v>42.99039751529515</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>39.07822863481481</v>
+        <v>20.1449233615456</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.5564205583627</v>
+        <v>48.71554017938225</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.29373321541492</v>
+        <v>55.88876605110848</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>31.86308331092381</v>
+        <v>33.60913065363023</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>37.11444592574135</v>
+        <v>52.09272614764098</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>38.80678683780746</v>
+        <v>59.95680110208391</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>43.50147519073434</v>
+        <v>68.10926968994119</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>39.07735391866134</v>
+        <v>43.71124857859715</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>31.55752551922215</v>
+        <v>48.91992020982534</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36.29482910304976</v>
+        <v>56.32499620575299</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>31.86418055882502</v>
+        <v>33.77608389094149</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>37.11552296910899</v>
+        <v>53.08557242512706</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>38.80785937582441</v>
+        <v>61.39623704902453</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>43.50253874023534</v>
+        <v>69.78618219379875</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>39.07841893838189</v>
+        <v>45.10713158214364</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>31.55867685530529</v>
+        <v>42.47286001788851</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>36.29599479085614</v>
+        <v>49.1189683639221</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>31.86532509813144</v>
+        <v>27.45907790938207</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>37.11666796533405</v>
+        <v>48.65446448186703</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>38.80900815032834</v>
+        <v>54.73308737705975</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>43.50370172162504</v>
+        <v>62.35121769273525</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>39.07956098935918</v>
+        <v>38.56775858175946</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>20.55188947555467</v>
+        <v>23.10320104530975</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>22.20185672941188</v>
+        <v>22.16183844341127</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.87286278430746</v>
+        <v>28.19128707931445</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>22.54181995885222</v>
+        <v>6.156200048839418</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>23.42408868987413</v>
+        <v>27.84790222349861</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20.55094498338875</v>
+        <v>36.06166388091525</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.20091722129192</v>
+        <v>37.75642744541641</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26.87193430787515</v>
+        <v>44.94507579985612</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>22.54088779150722</v>
+        <v>21.44081378564856</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>23.42314972599801</v>
+        <v>44.58194162891871</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.55205625911972</v>
+        <v>34.58920134498861</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.20202407292158</v>
+        <v>36.72473765310255</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.87303217468024</v>
+        <v>44.12860115163293</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>22.54198698377343</v>
+        <v>20.36632035351394</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.42425959287405</v>
+        <v>43.93635855546986</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>20.55316657330105</v>
+        <v>33.00958899581011</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>22.20313797398027</v>
+        <v>33.02614811380209</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>26.87416020672753</v>
+        <v>39.71149613889687</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>22.54309426494947</v>
+        <v>16.81957904373974</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>23.42538114809273</v>
+        <v>40.48091078317481</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.1122275799319</v>
+        <v>30.50905851261248</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.81625757848881</v>
+        <v>37.07593421064842</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.44999963253237</v>
+        <v>15.09880209775801</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>30.91380586766608</v>
+        <v>33.93037058310151</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>32.59316359082823</v>
+        <v>39.30166984711903</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>37.25521604996113</v>
+        <v>46.81098520171722</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.8932120271757</v>
+        <v>22.78788486439037</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.11129370150341</v>
+        <v>49.96557282106458</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.8153348116303</v>
+        <v>57.74090046491899</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.44907310358922</v>
+        <v>34.27777817808246</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>30.91290864423279</v>
+        <v>53.45506558308865</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>32.59227135221823</v>
+        <v>61.57581481339702</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>37.25433485031635</v>
+        <v>70.3215087611881</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>32.89232686241935</v>
+        <v>44.7656771206161</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.11239903539935</v>
+        <v>49.75971762801513</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.81643109767654</v>
+        <v>57.76086602274274</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.45017074707869</v>
+        <v>34.03844610407639</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.91398557336306</v>
+        <v>54.01386669832802</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>32.59334379916367</v>
+        <v>62.57791030502536</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>37.25539833189516</v>
+        <v>71.55511550279411</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.89339181748115</v>
+        <v>45.7283754298663</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.11352426860605</v>
+        <v>44.1071380738604</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.81757056075649</v>
+        <v>51.36403824913076</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.45128932877955</v>
+        <v>28.51635788126619</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>30.91510506286576</v>
+        <v>50.355259805753</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.59446701044719</v>
+        <v>56.72164977684202</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>37.25653562802805</v>
+        <v>64.94215818702317</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>32.89450844686678</v>
+        <v>39.99621351618549</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>20.51058949466181</v>
+        <v>10.88414028534679</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>22.16691991811378</v>
+        <v>9.997729491855365</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.83844926427669</v>
+        <v>15.13279776059436</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.50988271086777</v>
+        <v>-4.637722304089978</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.37027891040881</v>
+        <v>13.93998831755656</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>20.50964216628521</v>
+        <v>23.80392661030729</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>22.165977590793</v>
+        <v>25.56402085657157</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.83751796107954</v>
+        <v>31.85547531737618</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>22.50894774985515</v>
+        <v>10.63023020286117</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>23.36933707216858</v>
+        <v>30.73077175784093</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.51075639030461</v>
+        <v>22.17109892386282</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.16708737540913</v>
+        <v>24.37343897339255</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.83861876862359</v>
+        <v>30.88112019343968</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.51004985055154</v>
+        <v>9.395214109163819</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>23.37044993381678</v>
+        <v>29.94542278815893</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>20.51186963794434</v>
+        <v>20.26772556747736</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>22.16820422661651</v>
+        <v>20.34232743327622</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.83974976254906</v>
+        <v>26.12857106467032</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>22.51116007051183</v>
+        <v>5.513843306741952</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>23.37157439963872</v>
+        <v>26.09762773845056</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.06487442069566</v>
+        <v>16.48129966883587</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.76944134778951</v>
+        <v>22.12512067136804</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.40576496620083</v>
+        <v>2.393203856783627</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.85075816529159</v>
+        <v>23.02070507015117</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>32.53646805307896</v>
+        <v>28.27120885587934</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>37.19916376206622</v>
+        <v>34.89258528847903</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>32.83965419089107</v>
+        <v>13.01759170599698</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>25.06393768511342</v>
+        <v>36.0030874344116</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.76851571621188</v>
+        <v>42.85311140834504</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.40483560597408</v>
+        <v>21.6481962554456</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>30.84985809999019</v>
+        <v>42.68972182744277</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>32.53557298939377</v>
+        <v>50.69714624877937</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>37.19827973027502</v>
+        <v>58.55290325593504</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.83876622657723</v>
+        <v>35.15690588433716</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.06504599826863</v>
+        <v>35.65931668135159</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.7696149892823</v>
+        <v>42.73629592280624</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.40593620378637</v>
+        <v>21.26936213379091</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>30.85093801494667</v>
+        <v>43.12263326463901</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>32.53664840682904</v>
+        <v>51.57491860455377</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.19934618968132</v>
+        <v>59.66332691772863</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>32.8398341272872</v>
+        <v>35.99361478517861</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>25.06617415903169</v>
+        <v>29.60616576100485</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.77075739172951</v>
+        <v>35.93533171109785</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.40705770192933</v>
+        <v>15.34491432892848</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>30.8520603400959</v>
+        <v>39.02551791288356</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>32.53777447048582</v>
+        <v>45.27262904635859</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>37.20048635003624</v>
+        <v>52.60074532934228</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>32.84095359830069</v>
+        <v>29.81408944847976</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.26163819339228</v>
+        <v>5.213307028141879</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>27.93448657676306</v>
+        <v>4.080428128928302</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>32.69157199231465</v>
+        <v>9.347024795591897</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.24712803745524</v>
+        <v>-11.1281149386232</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.17543720712857</v>
+        <v>6.750401880612076</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>26.2606930069359</v>
+        <v>19.17883019066983</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.9335464129467</v>
+        <v>20.71835817922251</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.69064305850584</v>
+        <v>27.16114347782781</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.24619525254538</v>
+        <v>5.199838030632291</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.17449754104332</v>
+        <v>24.53874780829383</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>26.26181629261833</v>
+        <v>18.00384084190369</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>27.93466522783554</v>
+        <v>19.98873179872287</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>32.69175275039817</v>
+        <v>26.65268591347092</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.24730631249399</v>
+        <v>4.423477544329069</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.17561949843197</v>
+        <v>24.20873046504585</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>26.26296252688862</v>
+        <v>15.86157261239607</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>27.93581513115375</v>
+        <v>15.69081734370292</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>32.69291705595413</v>
+        <v>21.62130791569898</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.24844938604805</v>
+        <v>0.2785479767699091</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.1767772328996</v>
+        <v>20.17714198481514</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>30.88714206004479</v>
+        <v>9.174593330441072</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>35.67769280704943</v>
+        <v>14.93801717138889</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>31.19760815849363</v>
+        <v>-5.446823632340285</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>36.56942177253661</v>
+        <v>12.91395285149662</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>38.27258552971895</v>
+        <v>18.09581856163291</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>43.02013842743489</v>
+        <v>24.81850674274508</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>38.54623020145078</v>
+        <v>2.341078877303401</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>30.8862075201747</v>
+        <v>29.72290932481109</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.67676957826649</v>
+        <v>36.71257289010283</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>31.19668100712968</v>
+        <v>14.82387612595906</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>36.56852377647002</v>
+        <v>33.56193166745739</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>38.27169256002072</v>
+        <v>41.53019735496238</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>43.01925669227288</v>
+        <v>49.50750243293097</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>38.54534434529236</v>
+        <v>25.47818909027281</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.88732489586242</v>
+        <v>29.83761119724126</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>35.67787776716158</v>
+        <v>37.0593731710919</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>31.19779059561269</v>
+        <v>14.90117894194379</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.56961278113172</v>
+        <v>34.46667070377528</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>38.27277703231111</v>
+        <v>42.88284918616586</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>43.02033206303092</v>
+        <v>51.0979123897469</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.54642122807056</v>
+        <v>26.7873044747998</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.8884863918912</v>
+        <v>23.57063464033492</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>35.67905376556883</v>
+        <v>30.03266273759909</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>31.19894522930019</v>
+        <v>8.765676185806266</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>36.57076800339224</v>
+        <v>30.21480601406063</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>38.27393605995901</v>
+        <v>36.39566856505297</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>43.02150544649304</v>
+        <v>43.83810465275625</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>38.54757346687703</v>
+        <v>20.42538549991001</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>23.47143146107838</v>
+        <v>33.07807576261497</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.12372837240324</v>
+        <v>32.7513739028392</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.83475290167231</v>
+        <v>39.00806518149463</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.44649411608117</v>
+        <v>16.81319880454266</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.34694758075397</v>
+        <v>31.27869404211723</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.470487759204</v>
+        <v>46.16692036540846</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.12278966066282</v>
+        <v>48.49912442694828</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.83382531353464</v>
+        <v>55.92315244667298</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.44556274656663</v>
+        <v>32.25317319261703</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.34600939302599</v>
+        <v>48.14768954263413</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>23.47160075150418</v>
+        <v>44.55245292537256</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.12389822673645</v>
+        <v>47.32702155977776</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.83492482124234</v>
+        <v>54.9664512898547</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.44666364240517</v>
+        <v>31.03823773248313</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.34712102322687</v>
+        <v>47.3883173293038</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>23.47272711749535</v>
+        <v>42.74550194493929</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.12502818895158</v>
+        <v>43.38636415645204</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.83606903791398</v>
+        <v>50.30163077568896</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.4477868862478</v>
+        <v>27.2489133582352</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.34825867517277</v>
+        <v>43.68741061193857</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.03773463527127</v>
+        <v>34.54599431121123</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>32.78197338063897</v>
+        <v>41.3134584139986</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.35841272983454</v>
+        <v>19.22944041195861</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>33.77833435032267</v>
+        <v>37.25126109002499</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.46058436990474</v>
+        <v>43.24091370898103</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>40.16235461449049</v>
+        <v>50.95266705881787</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>35.74403816184354</v>
+        <v>26.80216384199261</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.03680154005346</v>
+        <v>54.15984133188599</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>32.78105148938821</v>
+        <v>62.14412499666869</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.35748698600427</v>
+        <v>38.56828720378629</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>33.77743787268333</v>
+        <v>56.93377574824269</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>35.45969288477399</v>
+        <v>65.69519888221446</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>40.16147425947506</v>
+        <v>74.65182288827073</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>35.7431537528831</v>
+        <v>48.96231563124241</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.03790863416387</v>
+        <v>53.84174195314579</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>32.7821494617715</v>
+        <v>62.05219507411209</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.35858637820575</v>
+        <v>38.21674100736983</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>33.77851661207578</v>
+        <v>57.38732543622432</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>35.46076713791242</v>
+        <v>66.59360886404285</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>40.16253947451321</v>
+        <v>75.78216768786004</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.74422050190339</v>
+        <v>49.82134048013116</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.03904997408365</v>
+        <v>47.9289099102814</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.78330515559413</v>
+        <v>55.38922544738217</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.35972096813557</v>
+        <v>32.43369299344208</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.77965192317835</v>
+        <v>53.47043738533285</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>35.46190618124239</v>
+        <v>60.46445168898456</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>40.16369272538819</v>
+        <v>68.89037402958272</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>35.74535286695199</v>
+        <v>43.81574483223912</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.00654424665871</v>
+        <v>7.059020980306153</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.67997710922392</v>
+        <v>5.953648296908304</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.37774520240465</v>
+        <v>10.81915411959369</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>22.03136514087355</v>
+        <v>-8.505697312009497</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>22.85413673130533</v>
+        <v>8.03754116632174</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>20.00558965724172</v>
+        <v>20.05063960703325</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.67902757380863</v>
+        <v>21.56469271834332</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.3768067322041</v>
+        <v>27.5802333667113</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>22.03042303473561</v>
+        <v>6.799104420309428</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>22.8531875496513</v>
+        <v>24.85315003953474</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>20.0067128087233</v>
+        <v>18.37004979683328</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.68014623969087</v>
+        <v>20.32111117443151</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.37791638675225</v>
+        <v>26.55104313225085</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.03153394867133</v>
+        <v>5.510777495699029</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>22.8543094241784</v>
+        <v>24.00563017871444</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>20.00783203342672</v>
+        <v>16.27333690785282</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.68126910389587</v>
+        <v>16.11713206445796</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>26.37905349448119</v>
+        <v>21.62667688977761</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>22.03265015545105</v>
+        <v>1.46674783621255</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.85543989513477</v>
+        <v>19.96025847225544</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>24.56589756555485</v>
+        <v>10.29647701207451</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.29680409639833</v>
+        <v>15.64089083922534</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.91531098049142</v>
+        <v>-3.617316664143422</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.35182549528128</v>
+        <v>16.70174270193176</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>32.05465543490865</v>
+        <v>21.6898982682127</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>36.74326346982798</v>
+        <v>28.01411569474358</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>32.36627978777966</v>
+        <v>6.625766781000708</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>24.5649535392953</v>
+        <v>29.81630088614878</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.29587121528872</v>
+        <v>36.36002171324908</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.91437439303054</v>
+        <v>15.62759583549226</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>30.35091822959753</v>
+        <v>36.37822962830974</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.05375322355138</v>
+        <v>44.09710318967316</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>36.7423723306994</v>
+        <v>51.64883626375637</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>32.36538473846209</v>
+        <v>28.73836199716357</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.56607081927143</v>
+        <v>29.40520918207603</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.29697942087346</v>
+        <v>36.17386067781295</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.91548388913825</v>
+        <v>15.18112384582175</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.35200701395546</v>
+        <v>36.74127471146627</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>32.05483746444351</v>
+        <v>44.89995308926276</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>36.74344757996543</v>
+        <v>52.68227962615711</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.36646139485208</v>
+        <v>29.4998184801802</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>24.56720502163847</v>
+        <v>23.17438645531698</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.29812796623124</v>
+        <v>29.19625363307108</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>24.91661140270022</v>
+        <v>9.089525736354103</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>30.35313528719965</v>
+        <v>32.44293110241384</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>32.05596951248894</v>
+        <v>38.41609364419497</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>36.74459382457147</v>
+        <v>45.43907549120099</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>32.36758682440527</v>
+        <v>23.14920379639841</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>21.5472720906284</v>
+        <v>19.57185888779922</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.21484175212682</v>
+        <v>18.60744628006617</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>27.93845528362089</v>
+        <v>24.2011353901047</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>23.553603040141</v>
+        <v>3.139031674218648</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.42113546459115</v>
+        <v>23.09076626539125</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>21.54632134933748</v>
+        <v>32.40078299344474</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>23.21389603959344</v>
+        <v>34.07165949631513</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>27.93752071382661</v>
+        <v>40.82474044532954</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>23.552664724066</v>
+        <v>18.28806054735913</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>24.42019018660734</v>
+        <v>39.6863226197935</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>21.54744274145825</v>
+        <v>30.84570358425687</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>23.21501296633596</v>
+        <v>32.95554947041306</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.93862856646593</v>
+        <v>39.92428376190918</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>23.55377391859874</v>
+        <v>17.1274045105045</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>24.42131025815948</v>
+        <v>38.95298870951948</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>21.54856690430721</v>
+        <v>29.3210176158524</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>23.21614076521421</v>
+        <v>29.31191872600395</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>27.93977066932344</v>
+        <v>35.55962228740892</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.55489502371473</v>
+        <v>13.64488783960439</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.42244575291978</v>
+        <v>35.5365421313159</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.1270851421242</v>
+        <v>25.64874552308781</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.88396875771858</v>
+        <v>31.75696413618464</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.46372103146061</v>
+        <v>10.75825239496947</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.92962546439292</v>
+        <v>30.32049132752726</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.62675615938024</v>
+        <v>35.60973663546319</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.34093865139045</v>
+        <v>42.68709455796584</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>33.92560809002752</v>
+        <v>19.58629677507699</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.12614499457997</v>
+        <v>44.9664154780115</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>30.88303983326525</v>
+        <v>52.28322555155179</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.46278828960925</v>
+        <v>29.79305841463299</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>31.92872210184807</v>
+        <v>49.7353062873138</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>33.62585782650304</v>
+        <v>57.77425860489669</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>38.34005146718842</v>
+        <v>66.0884820595506</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>33.9247168861739</v>
+        <v>41.44878572796968</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.12726049151604</v>
+        <v>44.67123148494424</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.88414619273125</v>
+        <v>52.21423240534718</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.46389602263105</v>
+        <v>29.46276364913242</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>31.92980905442041</v>
+        <v>50.20926826351096</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.62694025532183</v>
+        <v>58.69011912479193</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>38.34112484260781</v>
+        <v>67.23624420094622</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>33.92579175053694</v>
+        <v>42.32360053375697</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.12839971419946</v>
+        <v>39.05672063695815</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>30.88529981915794</v>
+        <v>45.8526758180661</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.46502851965332</v>
+        <v>23.98811917958709</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.9309424000363</v>
+        <v>46.57612634903289</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>33.62807737253723</v>
+        <v>52.85820713075264</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.34227621654878</v>
+        <v>60.64472730796411</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>33.9269222123886</v>
+        <v>36.62520380315722</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>21.29272580410039</v>
+        <v>7.587369600050044</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>22.96040703841286</v>
+        <v>6.558214939129689</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>27.66707956017461</v>
+        <v>11.56690306637628</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>23.30253595357237</v>
+        <v>-7.992617794060367</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>24.13316632174494</v>
+        <v>5.653630312401654</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>21.29177583092052</v>
+        <v>19.89639137143835</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>22.95946209059576</v>
+        <v>21.50456819248117</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>27.66614570748257</v>
+        <v>27.66449655013707</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>23.30159839804317</v>
+        <v>6.648779721542953</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.13222172380352</v>
+        <v>21.73057267781601</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>21.292895594235</v>
+        <v>18.16217689117093</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.96057739161015</v>
+        <v>20.21084927662338</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.6672519723261</v>
+        <v>26.58638288163912</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>23.3027059741509</v>
+        <v>5.309947132627928</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.13334024373882</v>
+        <v>20.83465282263201</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>21.29401701764742</v>
+        <v>16.72348137723331</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>22.96170245717439</v>
+        <v>16.65365031186012</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.66839129898964</v>
+        <v>22.31138848279306</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.30382437180648</v>
+        <v>1.91133550192365</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.13447290967298</v>
+        <v>17.48143000703089</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.83912897700456</v>
+        <v>8.065892857961538</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>30.57893043793441</v>
+        <v>13.55326877600894</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.17929473018991</v>
+        <v>-5.902525144120803</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.6158295847835</v>
+        <v>15.58831455932094</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>33.31275665946225</v>
+        <v>20.71199385835445</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>38.01010777713243</v>
+        <v>27.18782050913646</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.61513687739636</v>
+        <v>5.566748595798787</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.83818950582691</v>
+        <v>26.86580119873645</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>30.57800214184239</v>
+        <v>33.55348524056136</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.17836266094336</v>
+        <v>12.62454868871311</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>31.61492678222156</v>
+        <v>34.53051660736254</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>33.31185888237999</v>
+        <v>42.4039991462664</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>38.00922110145535</v>
+        <v>50.10844416956121</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>33.61424622599488</v>
+        <v>26.96598186636614</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.83930345452273</v>
+        <v>26.40974455780269</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.57910699132626</v>
+        <v>33.32361983610144</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.1794688526734</v>
+        <v>12.13280814085351</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.61601229346912</v>
+        <v>34.84249065071322</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>33.31293987371757</v>
+        <v>43.15945359147943</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>38.01029307702223</v>
+        <v>51.09579038241787</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.61531965946362</v>
+        <v>27.67979261035109</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.84043985426715</v>
+        <v>20.85961536825366</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.58025775156893</v>
+        <v>27.02953547518089</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.18059855305453</v>
+        <v>6.720166370808455</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.61714279933287</v>
+        <v>31.24344867471373</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>33.31407415639415</v>
+        <v>37.36322572010109</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>38.01144157374242</v>
+        <v>44.54312553922382</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>33.61644731259807</v>
+        <v>22.01516424543057</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>18.97838307962227</v>
+        <v>-3.182013133356294</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>20.64499682049403</v>
+        <v>-4.574563461451492</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.32361347911472</v>
+        <v>0.07272562123568882</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.0008047066767</v>
+        <v>-18.76589558673388</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>21.81863635888614</v>
+        <v>-2.858160309512362</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>18.97743187729692</v>
+        <v>8.792743622038445</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.64405063917636</v>
+        <v>10.00655466773643</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.32267832918788</v>
+        <v>15.79078639063763</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>20.99986592030665</v>
+        <v>-4.487510579758316</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.81769054497184</v>
+        <v>12.84446283680464</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>18.97855121892683</v>
+        <v>7.117654995307655</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>20.64516551889307</v>
+        <v>8.768157672813187</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.32378422406947</v>
+        <v>14.76648440927083</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>21.00097307801524</v>
+        <v>-5.771024388646117</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.81880860650828</v>
+        <v>11.98599384701127</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>18.97966070315971</v>
+        <v>5.901501501402427</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>20.64627864156686</v>
+        <v>5.456634979875778</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.32491152072691</v>
+        <v>10.74551291169647</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>21.00207960638964</v>
+        <v>-8.923732401558629</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>21.81992930980788</v>
+        <v>8.878016085671122</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>23.52329625167019</v>
+        <v>-0.8446685354202241</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.23491903691846</v>
+        <v>4.280109195152386</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>23.87705231267851</v>
+        <v>-14.47277671167439</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.35494303369463</v>
+        <v>7.272093768427597</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.05036743080488</v>
+        <v>11.97490317164983</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.71989449491819</v>
+        <v>18.08579325416517</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.36590363950995</v>
+        <v>-2.821937761043491</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.52235555939113</v>
+        <v>17.54963602224868</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.23398945567457</v>
+        <v>23.85988283609209</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.87611902462716</v>
+        <v>3.65047266630574</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.3540390674356</v>
+        <v>25.81347934041432</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.04946848428942</v>
+        <v>33.23469086837371</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.71900658664954</v>
+        <v>40.55917302757342</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.36501182044998</v>
+        <v>18.14700683809112</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.52346905083536</v>
+        <v>17.12733619914919</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.2350938994531</v>
+        <v>23.66210128705028</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>23.87722476249048</v>
+        <v>3.192411594856113</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.35512405595669</v>
+        <v>26.15051634203201</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.05054895487674</v>
+        <v>34.01147015526533</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>35.72007809218171</v>
+        <v>41.56608837334892</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.36608473730162</v>
+        <v>18.88211546476784</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>23.5245934838156</v>
+        <v>11.84602978050038</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.23623260545719</v>
+        <v>17.64546684701392</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>23.87834256967616</v>
+        <v>-1.950882964902663</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.35624282794198</v>
+        <v>22.80352628139644</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>31.0516714992533</v>
+        <v>28.49076865021598</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>35.72121476409829</v>
+        <v>35.29765960790665</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>31.3672007240251</v>
+        <v>13.49355224262895</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.13642693745827</v>
+        <v>16.39774643364493</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.81478579164578</v>
+        <v>15.21251943845425</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.57155862068792</v>
+        <v>20.30925027235805</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.13056732622403</v>
+        <v>0.3698762283099644</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.03920107777621</v>
+        <v>15.61814115894782</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.13547906306474</v>
+        <v>30.70070166452177</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.81384295615367</v>
+        <v>32.19655710306142</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.57062700640455</v>
+        <v>38.47178257662694</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.12963189343983</v>
+        <v>17.04730303386848</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.03825869138067</v>
+        <v>33.77085590772668</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.13660492898057</v>
+        <v>29.48072020581405</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.81496433731726</v>
+        <v>31.42334893256169</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>32.57173927277417</v>
+        <v>37.92032190557524</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.13074549806067</v>
+        <v>16.22686230911639</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.03938326802497</v>
+        <v>33.40914483362243</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.13775343164733</v>
+        <v>27.02397549609805</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.81611652177492</v>
+        <v>26.80326830621623</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>32.57290586771908</v>
+        <v>32.56397292382869</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.13189084416703</v>
+        <v>11.75902054552578</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.04054324917268</v>
+        <v>29.04041192857857</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>30.756488999915</v>
+        <v>17.93168939039819</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>35.54673246936559</v>
+        <v>23.51105823200238</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.07019566154569</v>
+        <v>3.671738726559225</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>36.42758399861307</v>
+        <v>23.2141435373462</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>38.13624015948247</v>
+        <v>28.28735120007146</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.88358524578977</v>
+        <v>34.83995939561762</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>38.4131256003459</v>
+        <v>12.86816803635108</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>30.7555517561632</v>
+        <v>38.85263274802782</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>35.54580652788349</v>
+        <v>45.66078881137067</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.0692658303872</v>
+        <v>24.31830841250399</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.42668332219881</v>
+        <v>44.2655464965413</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.13534452552474</v>
+        <v>52.13294395592355</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>42.88270083802598</v>
+        <v>59.94282162799745</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>38.41223710364333</v>
+        <v>36.41923548438302</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>30.7566717369807</v>
+        <v>38.93718092759587</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.54691733013622</v>
+        <v>45.97808790680958</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>31.07037800208126</v>
+        <v>24.36495011064332</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.4277749309864</v>
+        <v>45.14421504211914</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.13643158797476</v>
+        <v>53.46095825189087</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>42.88377880677128</v>
+        <v>61.50924860956139</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.41331655479632</v>
+        <v>37.70316149016721</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>30.75783549262353</v>
+        <v>32.32533190506617</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>35.54809559646046</v>
+        <v>38.60342931048296</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31.07153488700671</v>
+        <v>17.88381305479914</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>36.42893233573592</v>
+        <v>40.53128368640415</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.137592810837</v>
+        <v>46.60532098888163</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>42.88495439377757</v>
+        <v>53.87788119089772</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>38.41447098074633</v>
+        <v>30.97229021015155</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.33343737181063</v>
+        <v>24.23993610332357</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>23.99964068024507</v>
+        <v>23.32805872390594</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.70782823169542</v>
+        <v>28.68636367398228</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>24.33541099615201</v>
+        <v>8.304060344655882</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.16925339210733</v>
+        <v>21.47142930697807</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>22.33249037103575</v>
+        <v>37.0806315147589</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>23.99869870766122</v>
+        <v>38.79939849219186</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.70689734996787</v>
+        <v>45.31349877988891</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>24.33447640079036</v>
+        <v>23.46325539604539</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.16831174229996</v>
+        <v>38.06849651128942</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>22.33360786078166</v>
+        <v>35.39686483806094</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.99981173561096</v>
+        <v>37.55354829002024</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.70800134611605</v>
+        <v>44.28236724203024</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>24.33558171668888</v>
+        <v>22.17287196227458</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.16942800474616</v>
+        <v>37.2218483284276</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>22.33473188731738</v>
+        <v>33.69451332671753</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>24.0009393925715</v>
+        <v>33.73661913320615</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.70914327646519</v>
+        <v>39.74448368571328</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>24.33670268636063</v>
+        <v>18.51848762186491</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>25.17056327226352</v>
+        <v>33.60487563097924</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>26.87370092139805</v>
+        <v>24.00629895412377</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.61497884453096</v>
+        <v>29.83893139687022</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.20752195202538</v>
+        <v>9.571912565133614</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>32.5891768201618</v>
+        <v>28.77339131371736</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>34.28490624705461</v>
+        <v>34.04918480668938</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.98353724031089</v>
+        <v>40.85140730393419</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.58145887592433</v>
+        <v>18.47613811997355</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>26.87276440100192</v>
+        <v>43.31990570421519</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>31.61405349480527</v>
+        <v>50.35735242967898</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.2065928185914</v>
+        <v>28.6054586955998</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>32.58827678944993</v>
+        <v>48.1987468078952</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.28401124583431</v>
+        <v>56.21845316750049</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.98265333548897</v>
+        <v>64.25371279764987</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.58057098701703</v>
+        <v>40.34598159216436</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.87387609292031</v>
+        <v>42.91045784910949</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.61515609200654</v>
+        <v>50.1731826214568</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.20769676635439</v>
+        <v>28.16088688303589</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.58936017791485</v>
+        <v>48.55979411011044</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>34.2850901140128</v>
+        <v>57.02030041361749</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>38.98372319277628</v>
+        <v>65.28653992508517</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>34.58164230884552</v>
+        <v>41.10671229958819</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>26.87501508253682</v>
+        <v>37.10020794061861</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>31.61630945435252</v>
+        <v>43.61580165791972</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>27.2088290372306</v>
+        <v>22.49220666400713</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>32.59049312656245</v>
+        <v>44.70928129661122</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>34.28622682811579</v>
+        <v>50.97597700734138</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>38.98487413268938</v>
+        <v>58.48251085914148</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>34.58277237518692</v>
+        <v>35.19772130342928</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>27.48512592729444</v>
+        <v>27.32359702025649</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.15085634351406</v>
+        <v>26.43041647027602</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.86538593979728</v>
+        <v>32.13779697147426</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.45779718872328</v>
+        <v>10.85443204886621</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.34908758014688</v>
+        <v>26.54542224028597</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>27.48419169925984</v>
+        <v>41.80007773620846</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.14992712577108</v>
+        <v>43.5959051420568</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.86446783652571</v>
+        <v>50.48878001644882</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.45687528515379</v>
+        <v>27.70873992151832</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.34815874497922</v>
+        <v>44.86012860956248</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>27.4853030690631</v>
+        <v>40.61881636460463</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.15103404038263</v>
+        <v>42.86167796171868</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.86556572258247</v>
+        <v>49.97613330260125</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.45797451232299</v>
+        <v>26.92815521756234</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>30.34926887324263</v>
+        <v>44.53854878746546</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>27.48644314723773</v>
+        <v>38.20149357352725</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.15217776332827</v>
+        <v>38.27607204576915</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>33.86672373444118</v>
+        <v>44.65230883994372</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.4591114483287</v>
+        <v>22.49428538947155</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.3504203021937</v>
+        <v>40.22008877525537</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>32.05334259309508</v>
+        <v>29.23360813749321</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>36.80091310379902</v>
+        <v>35.43556214282935</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>32.35825835159168</v>
+        <v>14.26281424531862</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>37.58946468904306</v>
+        <v>32.13931238031076</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>39.28526903728722</v>
+        <v>37.60092714980306</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>43.99007451001361</v>
+        <v>44.75593587830238</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>39.55420329142837</v>
+        <v>21.50072759966619</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.05241887133742</v>
+        <v>50.32501780731037</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>36.8000005765323</v>
+        <v>57.76279995769624</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>32.35734195410837</v>
+        <v>35.07570625561722</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>37.5885769090991</v>
+        <v>53.31772802866963</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>39.2843862728501</v>
+        <v>61.58250663771656</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>43.9892028635776</v>
+        <v>70.00172476580404</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>39.55332758040731</v>
+        <v>45.18411955084784</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>32.05352443425272</v>
+        <v>50.44973906147043</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>36.80109704802805</v>
+        <v>58.12014203440092</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>32.35843979710808</v>
+        <v>35.16342863410266</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>37.58965457900227</v>
+        <v>54.23605895655285</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>39.28545942557505</v>
+        <v>62.95033528045447</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>43.99026700983241</v>
+        <v>71.60787495357515</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>39.55439320775369</v>
+        <v>46.50878274407297</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>32.05467959930026</v>
+        <v>43.88306546380306</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.80226660091385</v>
+        <v>50.78883691508685</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.3595881430434</v>
+        <v>28.72680646234259</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>37.59080329309928</v>
+        <v>49.693901922888</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>39.28661191818301</v>
+        <v>56.16012988693558</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>43.9914337448302</v>
+        <v>64.0401156798949</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>39.55553895514655</v>
+        <v>39.84244074865151</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>18.33051233572226</v>
+        <v>24.27138626702719</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>20.11118530244034</v>
+        <v>22.79013993019353</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.95341790474102</v>
+        <v>27.98217087051974</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>20.50363125150209</v>
+        <v>7.761646673137912</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>21.25616583704085</v>
+        <v>25.05003012874438</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>18.32952121704884</v>
+        <v>38.72708448287302</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>20.11019956301039</v>
+        <v>39.90012447674309</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>24.95244354409616</v>
+        <v>46.26212734359537</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>20.50265328868824</v>
+        <v>24.5652169219233</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>21.25518020344449</v>
+        <v>43.30566076134137</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>18.33069042757975</v>
+        <v>37.69169720715311</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>20.11136399102989</v>
+        <v>39.30720088129246</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.95359872007507</v>
+        <v>45.88980572838769</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>20.50380958854485</v>
+        <v>23.9248328141044</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>21.25634819617716</v>
+        <v>43.11410894111154</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>18.3318458222838</v>
+        <v>35.31085071663731</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>20.11252325143327</v>
+        <v>34.78199288170154</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.95477269429629</v>
+        <v>40.63518183296792</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>20.50496200945443</v>
+        <v>19.54908788320905</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>21.25751522708149</v>
+        <v>38.8617918830143</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>23.0765334527697</v>
+        <v>27.06544591822412</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>27.95270631245031</v>
+        <v>32.74152943538824</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>23.467006589939</v>
+        <v>12.61650787480273</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.9498589256089</v>
+        <v>30.84395255589981</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.76014838302727</v>
+        <v>35.60569321441189</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>35.59258264870645</v>
+        <v>42.23135127499694</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>31.11160455933734</v>
+        <v>20.03267154409211</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>23.075553305113</v>
+        <v>48.06201327048284</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>27.95173762553208</v>
+        <v>54.95787537475197</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>23.46603422986286</v>
+        <v>33.33863206259736</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.94891638276002</v>
+        <v>51.94155574182484</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>30.75921122185818</v>
+        <v>59.4701667203563</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>35.59165687113953</v>
+        <v>67.34364254880843</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>31.11067490047492</v>
+        <v>43.60315982380444</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>23.07671640169154</v>
+        <v>48.31237677105624</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.95289140576027</v>
+        <v>55.43977362030689</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>23.4671891644738</v>
+        <v>33.55074611278814</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.95005026502767</v>
+        <v>52.97789814704485</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.76034026149365</v>
+        <v>60.95144509916437</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.59277668083897</v>
+        <v>69.06202536439575</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.11179598417754</v>
+        <v>45.04007733297427</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>23.07788739195558</v>
+        <v>41.83663793675313</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>27.95407721171173</v>
+        <v>48.20847519871324</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.46835328212033</v>
+        <v>27.20315397640181</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.95121493144958</v>
+        <v>48.50027672120988</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>30.76150892741629</v>
+        <v>54.25067078579597</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>35.59396001267224</v>
+        <v>61.59290414956982</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.11295784975773</v>
+        <v>38.46131561520725</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.44792939199641</v>
+        <v>21.56490335367307</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.12561725821871</v>
+        <v>20.78567141245736</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.86386272180103</v>
+        <v>26.441136331015</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.45254005889433</v>
+        <v>5.255539052816468</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.30164767110632</v>
+        <v>19.63653384506203</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>24.44698189076842</v>
+        <v>35.42279880267363</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.12467481422546</v>
+        <v>37.31306288077587</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.86293143341448</v>
+        <v>44.14812900516031</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>26.45160501407537</v>
+        <v>21.46473791648042</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>27.30070552680073</v>
+        <v>37.30113567730309</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.44810395520214</v>
+        <v>33.92228649571442</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.12579238824694</v>
+        <v>36.25562086119596</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.86403993192388</v>
+        <v>43.30910792805875</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.45271483494298</v>
+        <v>20.36181262084503</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.30182638513702</v>
+        <v>36.65195115503095</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>24.44924159137185</v>
+        <v>31.56122559818167</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>26.12693368498218</v>
+        <v>31.74641274456397</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.86519560146214</v>
+        <v>38.06298543458787</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>26.4538493644356</v>
+        <v>16.01519204617664</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>27.30297536136296</v>
+        <v>32.37563136692383</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.01785792409557</v>
+        <v>22.37620033307334</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>33.78932790691916</v>
+        <v>28.51900852474842</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.34282633609692</v>
+        <v>7.44653774755229</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>34.67216308081618</v>
+        <v>25.75613260394208</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>36.37978078159554</v>
+        <v>31.27946154921747</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>41.10821285979705</v>
+        <v>38.39386542957369</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>36.66792609036393</v>
+        <v>15.21386592097312</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.0169209393173</v>
+        <v>42.79777862179733</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>33.78840215794461</v>
+        <v>50.17012854262962</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.34189676059655</v>
+        <v>27.58261548379775</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>34.67126250566802</v>
+        <v>46.28141147517641</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>36.37888526688723</v>
+        <v>54.58906404238483</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>41.10732850506906</v>
+        <v>62.96160198504146</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.66703771083462</v>
+        <v>38.21838630490448</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.01803719758608</v>
+        <v>42.59089005829968</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.78950927757438</v>
+        <v>50.19247099164381</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.34300523315591</v>
+        <v>27.33970395366086</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>34.6723505058382</v>
+        <v>46.86373774410321</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>36.37996871629875</v>
+        <v>55.61722875151251</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>41.10840290075425</v>
+        <v>64.22475685811892</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>36.66811357176306</v>
+        <v>39.20444949630016</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.01918992644436</v>
+        <v>36.08612751595873</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>33.79067647894772</v>
+        <v>42.92427357303988</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.34415116288964</v>
+        <v>20.97593801970156</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>34.67349694546722</v>
+        <v>42.35782911127807</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>36.38111895158062</v>
+        <v>48.88263068797784</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>41.10956746108267</v>
+        <v>56.71385043100494</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>36.66925708064228</v>
+        <v>32.60463219637546</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.11396761720898</v>
+        <v>11.69043073720871</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>26.77560076748689</v>
+        <v>10.24668354960374</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.45698193526592</v>
+        <v>15.15143170127169</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>27.0962725565424</v>
+        <v>-4.342688885348737</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>27.96187708488614</v>
+        <v>14.33591146689088</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.11303091664746</v>
+        <v>25.50593375987435</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.77466905756289</v>
+        <v>26.69299460756989</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.45606125316074</v>
+        <v>32.75599285769429</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>27.09534816689386</v>
+        <v>11.80134422434232</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>27.96094573597045</v>
+        <v>32.00240121370841</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.11414312423637</v>
+        <v>24.16125480054023</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.77577682438996</v>
+        <v>25.78840120555591</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.45716006046056</v>
+        <v>32.06889960577919</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.09644824500611</v>
+        <v>10.85083303530182</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>27.96205672189792</v>
+        <v>31.49922524639167</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.11527223276208</v>
+        <v>21.85251089713652</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>26.77690957452095</v>
+        <v>21.35781620509938</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>31.45830700892096</v>
+        <v>26.91411006844648</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.09757427905769</v>
+        <v>6.570829929096488</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.96319713262859</v>
+        <v>27.2704858185682</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.66185825036458</v>
+        <v>16.30155849241762</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>34.37615514848193</v>
+        <v>21.69875114850992</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.98056058546649</v>
+        <v>2.262491518560077</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>35.24740556787003</v>
+        <v>21.79577812412936</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>36.93867665159826</v>
+        <v>26.47767761503376</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>41.61076768116819</v>
+        <v>32.83675817431328</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>37.22099472451944</v>
+        <v>11.29808028796879</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.66093199434977</v>
+        <v>36.68392821908202</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.37523999985732</v>
+        <v>43.2892147863291</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.97964165983281</v>
+        <v>22.37400026254375</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>35.24651527164403</v>
+        <v>42.34326511710513</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>36.93779134907454</v>
+        <v>49.76627572137222</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>41.60989341111869</v>
+        <v>57.36153090278118</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>37.22011648116182</v>
+        <v>34.29588195338643</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.66203843010058</v>
+        <v>36.6203998375456</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>34.37633741352136</v>
+        <v>43.45394877999425</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.98074037446103</v>
+        <v>22.27381913180596</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.2475937945605</v>
+        <v>43.06821359407245</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.93886537103761</v>
+        <v>50.93382378549605</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>41.61095849460412</v>
+        <v>58.76293575724601</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>37.22118297694235</v>
+        <v>35.42064659771732</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.6631825737083</v>
+        <v>30.19172903454623</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>34.37749585414236</v>
+        <v>36.27462536296417</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.9818777701274</v>
+        <v>15.97474706880073</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>35.24873173614871</v>
+        <v>38.576346358457</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.94000708783629</v>
+        <v>44.24258401506826</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>41.61211436428128</v>
+        <v>51.30831470238446</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>37.22231801790045</v>
+        <v>28.85318394859522</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>18.29238186774614</v>
+        <v>17.51427109526361</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>20.07349055192846</v>
+        <v>16.10296066300036</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>24.9120962935047</v>
+        <v>21.1562123238046</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.46663614532906</v>
+        <v>1.295760331633565</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>21.21269203347126</v>
+        <v>18.01477733465786</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>18.2913905366903</v>
+        <v>31.95508781086148</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>20.07250460243392</v>
+        <v>33.19503216135563</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>24.91112171183738</v>
+        <v>39.4161487937822</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>20.46565797516169</v>
+        <v>18.08315028905272</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>21.21170617409286</v>
+        <v>36.2630584017834</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>18.29255974751473</v>
+        <v>30.936551578432</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>20.07366902901325</v>
+        <v>32.61800051543108</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>24.91227689568964</v>
+        <v>39.05967760804192</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>20.46681427222687</v>
+        <v>17.45830026521479</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>21.21287417953769</v>
+        <v>36.08857635940969</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>18.29371509299121</v>
+        <v>28.51391348133985</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>20.07482824000293</v>
+        <v>28.05321213339668</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>24.91345081228872</v>
+        <v>33.76619362516652</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>20.46796664490778</v>
+        <v>13.04251035685817</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>21.21404114655569</v>
+        <v>31.78555416295374</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>23.03349268690575</v>
+        <v>20.07479377132812</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>27.90601473032222</v>
+        <v>25.6080711830288</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>23.42469867073612</v>
+        <v>5.83985675142703</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.89851506348973</v>
+        <v>24.17079936909238</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.70922461714787</v>
+        <v>28.97370744337083</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>35.53806870064202</v>
+        <v>35.45909953169576</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>31.06145079347353</v>
+        <v>13.60959717088247</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>23.03251231577787</v>
+        <v>41.06065701529298</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>27.90504580890534</v>
+        <v>47.811614261328</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>23.42372608998585</v>
+        <v>26.55284007408972</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>28.897572279846</v>
+        <v>45.26711049872843</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>30.70828721745189</v>
+        <v>52.83336768612673</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>35.5371426737203</v>
+        <v>60.56447248719247</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>31.06052089894902</v>
+        <v>37.17671386096157</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>23.03367542334966</v>
+        <v>41.32717703313569</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>27.90619960949801</v>
+        <v>48.30961952655787</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.42488103416077</v>
+        <v>26.78074154179946</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.89870619344249</v>
+        <v>46.3201460329424</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>30.70941628671586</v>
+        <v>54.33037861604633</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>35.53826252223107</v>
+        <v>62.29852885466001</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>31.06164201074878</v>
+        <v>38.62898251448032</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>23.03484634953359</v>
+        <v>34.80309876807079</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>27.90738534310258</v>
+        <v>41.03064232140172</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>23.42604508899917</v>
+        <v>20.38441960339649</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>28.89987077115208</v>
+        <v>41.78690373926013</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>30.71058486369565</v>
+        <v>47.57642333403322</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.53944575696535</v>
+        <v>54.77689013868187</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>31.06280378877119</v>
+        <v>31.99673274019557</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.82022793429833</v>
+        <v>27.32135744832152</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.4869811335312</v>
+        <v>26.26886090167731</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.23103565911012</v>
+        <v>31.78266311763216</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.79570337202681</v>
+        <v>11.0185020669414</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.70389787347517</v>
+        <v>26.13828779938702</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>26.81928534128001</v>
+        <v>40.76917685093965</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>28.4860435442401</v>
+        <v>42.37073699338232</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>33.23010926373475</v>
+        <v>49.04974029935816</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.7947731394178</v>
+        <v>26.81516828171158</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.70296073624608</v>
+        <v>43.37901691854057</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>26.82040453018652</v>
+        <v>39.32544240040088</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.48715828240544</v>
+        <v>41.36951033892196</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>33.23121490506162</v>
+        <v>48.26602405623797</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.79588015233155</v>
+        <v>25.76840668597087</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.70407865528691</v>
+        <v>42.79165942838555</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.82155028042705</v>
+        <v>37.31605810761149</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.48830769197419</v>
+        <v>37.22411793237891</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>33.2323786827306</v>
+        <v>43.39516540782816</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.79702273944725</v>
+        <v>21.77351922137793</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.70523581023739</v>
+        <v>38.90006942986619</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>31.4094633663894</v>
+        <v>28.59948523085225</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>36.1868808176919</v>
+        <v>34.60300045575373</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>31.71617695791457</v>
+        <v>13.94295867035436</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>37.0514305099308</v>
+        <v>32.05769012443447</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>38.74849214661918</v>
+        <v>37.24577094285475</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>43.48309648513583</v>
+        <v>44.20269187439177</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>39.01859953201577</v>
+        <v>21.45218969365255</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>31.40853133633681</v>
+        <v>48.57990221475967</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>36.1859600623323</v>
+        <v>55.79825957685649</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>31.71525229447968</v>
+        <v>33.65027603576126</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>37.05053489025902</v>
+        <v>52.14960762929925</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>38.74760153474742</v>
+        <v>60.10353113641494</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>43.48221707210107</v>
+        <v>68.30332876193047</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>39.01771601280394</v>
+        <v>44.01745344963449</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>31.40964469385248</v>
+        <v>48.43421404470956</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>36.18706425945585</v>
+        <v>55.880944576315</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>31.71635789416705</v>
+        <v>33.46831896958546</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>37.05162001325003</v>
+        <v>52.78505019913</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>38.74868214520832</v>
+        <v>61.18390065778384</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>43.48328860692272</v>
+        <v>69.61773618945803</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>39.01878906219629</v>
+        <v>45.05558274975289</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>31.41080560051219</v>
+        <v>42.32836726475525</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>36.18823963410234</v>
+        <v>49.02349354896111</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>31.71751194632575</v>
+        <v>27.49169391559153</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>37.05277456854143</v>
+        <v>48.64835479156891</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>38.74984049572343</v>
+        <v>54.83303494096148</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>43.48446127912423</v>
+        <v>62.50267869290367</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>39.01994063179723</v>
+        <v>38.82778697094099</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>25.38084017913645</v>
+        <v>21.98865902401477</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>27.05746357990029</v>
+        <v>21.22810049001417</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>31.8022637343615</v>
+        <v>26.9339927323367</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>27.37831917224263</v>
+        <v>5.643039391545353</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>28.24372473176453</v>
+        <v>20.16899808214605</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>25.37989391122863</v>
+        <v>36.03529368277534</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>27.0565223648721</v>
+        <v>37.93965878174518</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>31.80133369404452</v>
+        <v>44.82569195607073</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>27.37738534932053</v>
+        <v>22.03543200656271</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>28.24278384639651</v>
+        <v>38.0178566652082</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>25.38101575954606</v>
+        <v>34.59314488144173</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>27.05763972605839</v>
+        <v>36.93921526208792</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>31.8024419671241</v>
+        <v>44.04373466610643</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>27.37849495912438</v>
+        <v>20.98894138934379</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>28.24390447332472</v>
+        <v>37.42717807302943</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>25.3821574634779</v>
+        <v>32.09740597610807</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>27.0587850896175</v>
+        <v>32.29826628852918</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>31.80360172001078</v>
+        <v>38.66556018864365</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>27.37963352853942</v>
+        <v>16.51013600993082</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>28.24505754173244</v>
+        <v>33.02471761389938</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>29.95899603022756</v>
+        <v>22.93676494399533</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>34.7370649112593</v>
+        <v>29.13014380261976</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>30.27789553679452</v>
+        <v>7.95395116715793</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>35.59071650260884</v>
+        <v>25.49402248601938</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>37.2974713757387</v>
+        <v>31.03602343130323</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>42.03243823532707</v>
+        <v>38.19199183115971</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>37.57974651922254</v>
+        <v>14.92140035887821</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>29.95806030055379</v>
+        <v>43.53784208794227</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>34.73614043665386</v>
+        <v>50.96130742443929</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>30.27696720938202</v>
+        <v>28.26848814412013</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>35.58981713460699</v>
+        <v>46.19828103422005</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>37.29657706442419</v>
+        <v>54.5196980558591</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>42.03155510279942</v>
+        <v>62.93426805078029</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>37.57885933641114</v>
+        <v>38.09903915310645</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>29.95917633022491</v>
+        <v>43.3880435442306</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>34.73724731497779</v>
+        <v>51.04082402298017</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>30.27807545502323</v>
+        <v>28.08205040561088</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>35.59090494657869</v>
+        <v>46.83900935723145</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>37.29766032818824</v>
+        <v>55.60483227369171</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>42.03262930041848</v>
+        <v>64.25446171693143</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>37.57993501298382</v>
+        <v>39.14148903114275</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>29.96033315046508</v>
+        <v>36.76028269625308</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>34.73841862433878</v>
+        <v>43.64934792404109</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>30.27922544917173</v>
+        <v>21.59485465432746</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>35.59205540466034</v>
+        <v>42.20427053452697</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>37.29881458137154</v>
+        <v>48.74455873090474</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>42.03379789535508</v>
+        <v>56.61757138496674</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>37.58108251348374</v>
+        <v>32.41555969457413</v>
       </c>
     </row>
   </sheetData>
